--- a/4- Data Governance at SneakerPark/EnterpriseDataCatalog.xlsx
+++ b/4- Data Governance at SneakerPark/EnterpriseDataCatalog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17610" activeTab="4"/>
+    <workbookView windowHeight="17610" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data Dictionary" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Standard Naming Conventions (St" sheetId="4" r:id="rId4"/>
     <sheet name="Business Glossary (Standout)" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Dictionary'!$A$1:$M$63</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -400,7 +403,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="291">
   <si>
     <t>Entity</t>
   </si>
@@ -1078,6 +1081,27 @@
     <t>Count the number of unique email</t>
   </si>
   <si>
+    <t xml:space="preserve">productID          </t>
+  </si>
+  <si>
+    <t>Invalid Referennce value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validity </t>
+  </si>
+  <si>
+    <t>The SellerID didnot refer to valid ItemID from Items table</t>
+  </si>
+  <si>
+    <t>This field needs to be set as foreign key constraint references to the ItemID of Items table.</t>
+  </si>
+  <si>
+    <t>ProductID should be a valid ItemID value from Items Table</t>
+  </si>
+  <si>
+    <t>Percentage of valid values</t>
+  </si>
+  <si>
     <t>Missing Data</t>
   </si>
   <si>
@@ -1147,9 +1171,6 @@
     <t>ListingEndDate should be set or fill out the default value if not provided</t>
   </si>
   <si>
-    <t xml:space="preserve">Validity </t>
-  </si>
-  <si>
     <t>Status have been missing value</t>
   </si>
   <si>
@@ -1171,9 +1192,6 @@
     <t xml:space="preserve">SellerID </t>
   </si>
   <si>
-    <t>Invalid Referennce value</t>
-  </si>
-  <si>
     <t>The SellerID didnot refer to valid UserID from Users table</t>
   </si>
   <si>
@@ -1183,9 +1201,6 @@
     <t>SellerID should be a valid UserID value from Users Table</t>
   </si>
   <si>
-    <t>Percentage of valid values</t>
-  </si>
-  <si>
     <t>13.55% of ItemStatus records have NULL value</t>
   </si>
   <si>
@@ -1196,6 +1211,9 @@
   </si>
   <si>
     <t>itemid = 46646</t>
+  </si>
+  <si>
+    <t>This field needs to be set to NOT NULL to avoid missing data.</t>
   </si>
   <si>
     <t xml:space="preserve">ArrivalDate should be fill with valid value </t>
@@ -1981,17 +1999,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2304,13 +2322,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>635</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1362710</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38735</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2328,7 +2346,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="6169025"/>
+          <a:off x="635" y="6423025"/>
           <a:ext cx="8162925" cy="4381500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2346,13 +2364,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2409825</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:colOff>3981450</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2370,7 +2388,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="6111875"/>
+          <a:off x="8124825" y="6365875"/>
           <a:ext cx="8582025" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2388,13 +2406,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2371725</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4524375</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2412,7 +2430,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17030700" y="6159500"/>
+          <a:off x="15097125" y="6413500"/>
           <a:ext cx="8201025" cy="4467225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2430,13 +2448,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1753870</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>429895</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2454,7 +2472,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1270" y="10931525"/>
+          <a:off x="1270" y="11185525"/>
           <a:ext cx="8553450" cy="4371975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2472,13 +2490,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1685925</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2419350</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:colOff>3990975</xdr:colOff>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2496,7 +2514,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8486775" y="10731500"/>
+          <a:off x="8124825" y="10985500"/>
           <a:ext cx="8591550" cy="4238625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2710,13 +2728,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M500"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -2778,7 +2796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" hidden="1" customHeight="1" spans="1:13">
       <c r="A2" s="20" t="s">
         <v>13</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:13">
+    <row r="3" hidden="1" customHeight="1" spans="1:13">
       <c r="A3" s="22" t="s">
         <v>13</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" hidden="1" customHeight="1" spans="1:13">
       <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
@@ -2901,7 +2919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:13">
+    <row r="5" hidden="1" customHeight="1" spans="1:13">
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="6" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
@@ -2983,7 +3001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="7" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A7" s="22" t="s">
         <v>13</v>
       </c>
@@ -3024,7 +3042,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="8" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A8" s="20" t="s">
         <v>13</v>
       </c>
@@ -3065,7 +3083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="9" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A9" s="22" t="s">
         <v>13</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="10" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A10" s="20" t="s">
         <v>13</v>
       </c>
@@ -3147,7 +3165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" s="15" customFormat="1" customHeight="1" spans="1:13">
+    <row r="11" s="15" customFormat="1" hidden="1" customHeight="1" spans="1:13">
       <c r="A11" s="22" t="s">
         <v>13</v>
       </c>
@@ -3184,7 +3202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
+    <row r="12" hidden="1" customHeight="1" spans="1:13">
       <c r="A12" s="20" t="s">
         <v>47</v>
       </c>
@@ -3212,20 +3230,20 @@
       <c r="I12" s="21">
         <v>228286</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="10" t="s">
+      <c r="K12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
+    <row r="13" hidden="1" customHeight="1" spans="1:13">
       <c r="A13" s="22" t="s">
         <v>47</v>
       </c>
@@ -3266,7 +3284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" hidden="1" customHeight="1" spans="1:13">
       <c r="A14" s="20" t="s">
         <v>47</v>
       </c>
@@ -3294,20 +3312,20 @@
       <c r="I14" s="21">
         <v>46746</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="10" t="s">
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:13">
+    <row r="15" hidden="1" customHeight="1" spans="1:13">
       <c r="A15" s="22" t="s">
         <v>47</v>
       </c>
@@ -3348,7 +3366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" hidden="1" customHeight="1" spans="1:13">
       <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
@@ -3376,20 +3394,20 @@
       <c r="I16" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L16" s="10" t="s">
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:13">
+    <row r="17" hidden="1" customHeight="1" spans="1:13">
       <c r="A17" s="22" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3448,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:13">
+    <row r="18" hidden="1" customHeight="1" spans="1:13">
       <c r="A18" s="20" t="s">
         <v>47</v>
       </c>
@@ -3458,20 +3476,20 @@
       <c r="I18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="10" t="s">
+      <c r="J18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:13">
+    <row r="19" hidden="1" customHeight="1" spans="1:13">
       <c r="A19" s="22" t="s">
         <v>47</v>
       </c>
@@ -3512,7 +3530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
+    <row r="20" hidden="1" customHeight="1" spans="1:13">
       <c r="A20" s="20" t="s">
         <v>47</v>
       </c>
@@ -3540,20 +3558,20 @@
       <c r="I20" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="J20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
+    <row r="21" hidden="1" customHeight="1" spans="1:13">
       <c r="A21" s="22" t="s">
         <v>47</v>
       </c>
@@ -3594,7 +3612,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:13">
+    <row r="22" hidden="1" customHeight="1" spans="1:13">
       <c r="A22" s="20" t="s">
         <v>47</v>
       </c>
@@ -3622,20 +3640,20 @@
       <c r="I22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="10" t="s">
+      <c r="J22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
+    <row r="23" hidden="1" customHeight="1" spans="1:13">
       <c r="A23" s="22" t="s">
         <v>47</v>
       </c>
@@ -3676,7 +3694,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:13">
+    <row r="24" hidden="1" customHeight="1" spans="1:13">
       <c r="A24" s="20" t="s">
         <v>47</v>
       </c>
@@ -3704,20 +3722,20 @@
       <c r="I24" s="21">
         <v>44152</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="10" t="s">
+      <c r="J24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:13">
+    <row r="25" hidden="1" customHeight="1" spans="1:13">
       <c r="A25" s="22" t="s">
         <v>87</v>
       </c>
@@ -3758,7 +3776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:13">
+    <row r="26" hidden="1" customHeight="1" spans="1:13">
       <c r="A26" s="20" t="s">
         <v>87</v>
       </c>
@@ -3786,20 +3804,20 @@
       <c r="I26" s="21">
         <v>11622</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="10" t="s">
+      <c r="J26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:13">
+    <row r="27" hidden="1" customHeight="1" spans="1:13">
       <c r="A27" s="22" t="s">
         <v>87</v>
       </c>
@@ -3840,7 +3858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:13">
+    <row r="28" hidden="1" customHeight="1" spans="1:13">
       <c r="A28" s="20" t="s">
         <v>87</v>
       </c>
@@ -3868,20 +3886,20 @@
       <c r="I28" s="21">
         <v>5.56</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L28" s="10" t="s">
+      <c r="J28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="M28" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:13">
+    <row r="29" hidden="1" customHeight="1" spans="1:13">
       <c r="A29" s="22" t="s">
         <v>87</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="1:13">
+    <row r="30" hidden="1" customHeight="1" spans="1:13">
       <c r="A30" s="20" t="s">
         <v>87</v>
       </c>
@@ -3950,20 +3968,20 @@
       <c r="I30" s="21">
         <v>108.28</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L30" s="10" t="s">
+      <c r="J30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="1:13">
+    <row r="31" hidden="1" customHeight="1" spans="1:13">
       <c r="A31" s="22" t="s">
         <v>87</v>
       </c>
@@ -4004,7 +4022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="1:13">
+    <row r="32" hidden="1" customHeight="1" spans="1:13">
       <c r="A32" s="20" t="s">
         <v>87</v>
       </c>
@@ -4032,20 +4050,20 @@
       <c r="I32" s="21">
         <v>37819</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L32" s="10" t="s">
+      <c r="J32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="1:13">
+    <row r="33" hidden="1" customHeight="1" spans="1:13">
       <c r="A33" s="22" t="s">
         <v>87</v>
       </c>
@@ -4086,7 +4104,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="1:13">
+    <row r="34" hidden="1" customHeight="1" spans="1:13">
       <c r="A34" s="20" t="s">
         <v>87</v>
       </c>
@@ -4114,20 +4132,20 @@
       <c r="I34" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K34" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="10" t="s">
+      <c r="J34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L34" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M34" s="10" t="s">
+      <c r="M34" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:13">
+    <row r="35" hidden="1" customHeight="1" spans="1:13">
       <c r="A35" s="22" t="s">
         <v>117</v>
       </c>
@@ -4168,7 +4186,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="1:13">
+    <row r="36" hidden="1" customHeight="1" spans="1:13">
       <c r="A36" s="20" t="s">
         <v>117</v>
       </c>
@@ -4196,20 +4214,20 @@
       <c r="I36" s="21">
         <v>998839</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="M36" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:13">
+    <row r="37" hidden="1" customHeight="1" spans="1:13">
       <c r="A37" s="22" t="s">
         <v>117</v>
       </c>
@@ -4250,7 +4268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="1:13">
+    <row r="38" hidden="1" customHeight="1" spans="1:13">
       <c r="A38" s="20" t="s">
         <v>122</v>
       </c>
@@ -4278,20 +4296,20 @@
       <c r="I38" s="21">
         <v>797095</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="10" t="s">
+      <c r="K38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M38" s="10" t="s">
+      <c r="M38" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="1:13">
+    <row r="39" hidden="1" customHeight="1" spans="1:13">
       <c r="A39" s="22" t="s">
         <v>122</v>
       </c>
@@ -4332,7 +4350,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" customHeight="1" spans="1:13">
+    <row r="40" hidden="1" customHeight="1" spans="1:13">
       <c r="A40" s="20" t="s">
         <v>122</v>
       </c>
@@ -4360,20 +4378,20 @@
       <c r="I40" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L40" s="10" t="s">
+      <c r="J40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L40" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="1:13">
+    <row r="41" hidden="1" customHeight="1" spans="1:13">
       <c r="A41" s="22" t="s">
         <v>122</v>
       </c>
@@ -4414,7 +4432,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="1:13">
+    <row r="42" hidden="1" customHeight="1" spans="1:13">
       <c r="A42" s="20" t="s">
         <v>122</v>
       </c>
@@ -4442,20 +4460,20 @@
       <c r="I42" s="21">
         <v>44144</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="10" t="s">
+      <c r="J42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" customHeight="1" spans="1:13">
+    <row r="43" hidden="1" customHeight="1" spans="1:13">
       <c r="A43" s="22" t="s">
         <v>135</v>
       </c>
@@ -4496,7 +4514,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:13">
+    <row r="44" hidden="1" customHeight="1" spans="1:13">
       <c r="A44" s="20" t="s">
         <v>135</v>
       </c>
@@ -4524,20 +4542,20 @@
       <c r="I44" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L44" s="10" t="s">
+      <c r="J44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:13">
+    <row r="45" hidden="1" customHeight="1" spans="1:13">
       <c r="A45" s="22" t="s">
         <v>135</v>
       </c>
@@ -4578,7 +4596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:13">
+    <row r="46" hidden="1" customHeight="1" spans="1:13">
       <c r="A46" s="20" t="s">
         <v>135</v>
       </c>
@@ -4606,20 +4624,20 @@
       <c r="I46" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L46" s="10" t="s">
+      <c r="J46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:13">
+    <row r="47" hidden="1" customHeight="1" spans="1:13">
       <c r="A47" s="22" t="s">
         <v>135</v>
       </c>
@@ -4660,7 +4678,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:13">
+    <row r="48" hidden="1" customHeight="1" spans="1:13">
       <c r="A48" s="20" t="s">
         <v>135</v>
       </c>
@@ -4688,20 +4706,20 @@
       <c r="I48" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="10" t="s">
+      <c r="J48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:13">
+    <row r="49" hidden="1" customHeight="1" spans="1:13">
       <c r="A49" s="22" t="s">
         <v>135</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:13">
+    <row r="50" hidden="1" customHeight="1" spans="1:13">
       <c r="A50" s="20" t="s">
         <v>135</v>
       </c>
@@ -4770,20 +4788,20 @@
       <c r="I50" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" s="10" t="s">
+      <c r="J50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M50" s="10" t="s">
+      <c r="M50" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:13">
+    <row r="51" hidden="1" customHeight="1" spans="1:13">
       <c r="A51" s="22" t="s">
         <v>135</v>
       </c>
@@ -4824,7 +4842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:13">
+    <row r="52" hidden="1" customHeight="1" spans="1:13">
       <c r="A52" s="20" t="s">
         <v>135</v>
       </c>
@@ -4852,20 +4870,20 @@
       <c r="I52" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" s="10" t="s">
+      <c r="J52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M52" s="10" t="s">
+      <c r="M52" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:13">
+    <row r="53" hidden="1" customHeight="1" spans="1:13">
       <c r="A53" s="22" t="s">
         <v>135</v>
       </c>
@@ -4934,16 +4952,16 @@
       <c r="I54" s="21">
         <v>965323</v>
       </c>
-      <c r="J54" s="10" t="s">
+      <c r="J54" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" s="10" t="s">
+      <c r="K54" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="10" t="s">
+      <c r="M54" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5016,16 +5034,16 @@
       <c r="I56" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" s="10" t="s">
+      <c r="J56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="10" t="s">
+      <c r="M56" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5098,16 +5116,16 @@
       <c r="I58" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L58" s="10" t="s">
+      <c r="J58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="10" t="s">
+      <c r="M58" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5180,16 +5198,16 @@
       <c r="I60" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L60" s="10" t="s">
+      <c r="J60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M60" s="10" t="s">
+      <c r="M60" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -5262,16 +5280,16 @@
       <c r="I62" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="J62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K62" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L62" s="10" t="s">
+      <c r="J62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K62" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="M62" s="12" t="s">
         <v>21</v>
       </c>
     </row>
@@ -11872,6 +11890,14 @@
       <c r="M500" s="3"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M63">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Customer Service Application"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="I5" r:id="rId3" display="tandy.wire@gmail.com" tooltip="mailto:tandy.wire@gmail.com"/>
   </hyperlinks>
@@ -11889,7 +11915,7 @@
   <dimension ref="A1:F499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
@@ -11942,22 +11968,22 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11982,22 +12008,22 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12022,22 +12048,22 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -12062,22 +12088,22 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>196</v>
       </c>
     </row>
@@ -16013,22 +16039,24 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.1428571428571" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.2857142857143" style="6" customWidth="1"/>
     <col min="2" max="2" width="18.4285714285714" style="6" customWidth="1"/>
     <col min="3" max="3" width="26.5714285714286" style="6" customWidth="1"/>
-    <col min="4" max="4" width="39.8571428571429" style="6" customWidth="1"/>
-    <col min="5" max="5" width="43.4285714285714" style="6" customWidth="1"/>
-    <col min="6" max="6" width="55.5714285714286" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.8571428571429" style="7" customWidth="1"/>
-    <col min="8" max="10" width="90.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="37.8571428571429" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.7142857142857" style="6" customWidth="1"/>
+    <col min="6" max="6" width="52.5714285714286" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16.4285714285714" style="7" customWidth="1"/>
+    <col min="8" max="8" width="82.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="64.8571428571429" customWidth="1"/>
+    <col min="10" max="10" width="73.9428571428571" customWidth="1"/>
     <col min="11" max="11" width="32.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
@@ -16051,10 +16079,10 @@
       <c r="F1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>211</v>
       </c>
       <c r="I1" s="13" t="s">
@@ -16083,13 +16111,13 @@
       <c r="F2" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>218</v>
       </c>
       <c r="J2" s="9" t="s">
@@ -16097,34 +16125,34 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:10">
-      <c r="A3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16133,63 +16161,63 @@
         <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:10">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:10">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:10">
@@ -16197,63 +16225,63 @@
         <v>18</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:10">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:10">
-      <c r="A7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>226</v>
+      <c r="E7" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:10">
@@ -16261,254 +16289,254 @@
         <v>18</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D9" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I8" s="10" t="s">
+      <c r="I9" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:10">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:10">
       <c r="A10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:10">
+      <c r="A11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:10">
-      <c r="A11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="D11" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="G11" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="H11" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="10" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:10">
+      <c r="J11" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" ht="15" spans="1:10">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G12" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>245</v>
+      <c r="G12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I13" s="2" t="s">
+      <c r="D13" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>226</v>
+      <c r="G13" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:10">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="D15" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="J15" s="11" t="s">
+      <c r="H15" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>226</v>
       </c>
     </row>
@@ -16517,88 +16545,108 @@
         <v>18</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>163</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I16" s="10" t="s">
         <v>268</v>
       </c>
+      <c r="G16" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>270</v>
+      </c>
       <c r="J16" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" ht="32" customHeight="1" spans="1:10">
-      <c r="A17" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:10">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" ht="37" customHeight="1" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
       <c r="G19" s="2"/>
       <c r="H19" s="5"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="11"/>
+      <c r="J19" s="10"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="9"/>
@@ -16607,22 +16655,22 @@
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="12"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="9"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
       <c r="G21" s="2"/>
       <c r="H21" s="5"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="11"/>
+      <c r="J21" s="10"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="9"/>
@@ -16631,22 +16679,22 @@
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="10"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="10"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
       <c r="G23" s="2"/>
       <c r="H23" s="5"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="11"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="9"/>
@@ -16655,22 +16703,22 @@
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="10"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="10"/>
+      <c r="I24" s="12"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
       <c r="G25" s="2"/>
       <c r="H25" s="5"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="11"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="9"/>
@@ -16679,22 +16727,22 @@
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="10"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="12"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
       <c r="G27" s="2"/>
       <c r="H27" s="5"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="11"/>
+      <c r="J27" s="10"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="9"/>
@@ -16703,22 +16751,34 @@
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
+      <c r="G28" s="12"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="10"/>
+      <c r="I28" s="12"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
       <c r="G29" s="2"/>
       <c r="H29" s="5"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="11"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16749,13 +16809,13 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>210</v>
@@ -16766,13 +16826,13 @@
         <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
@@ -16837,8 +16897,8 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -16850,24 +16910,24 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
